--- a/data/pca/factorExposure/factorExposure_2012-12-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-12-24.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0002084424640773768</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001794317544856916</v>
+      </c>
+      <c r="C2">
+        <v>-0.03165383072037897</v>
+      </c>
+      <c r="D2">
+        <v>0.005301527599068163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0005270495281438432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006415757658477635</v>
+      </c>
+      <c r="C4">
+        <v>-0.08404131563395807</v>
+      </c>
+      <c r="D4">
+        <v>0.07907530730573477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0002888230590769478</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01447810002571176</v>
+      </c>
+      <c r="C6">
+        <v>-0.1140660265129465</v>
+      </c>
+      <c r="D6">
+        <v>0.03309032030347964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001756469059736028</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005163377867370924</v>
+      </c>
+      <c r="C7">
+        <v>-0.05827421096776931</v>
+      </c>
+      <c r="D7">
+        <v>0.03057331646832611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0008746373049573458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005871386973512776</v>
+      </c>
+      <c r="C8">
+        <v>-0.03786952669659748</v>
+      </c>
+      <c r="D8">
+        <v>0.04032458974125841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003328137509660726</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004576702775555714</v>
+      </c>
+      <c r="C9">
+        <v>-0.07033336203899668</v>
+      </c>
+      <c r="D9">
+        <v>0.07294891517214905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002822267925168161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005415131495656174</v>
+      </c>
+      <c r="C10">
+        <v>-0.05798039647796541</v>
+      </c>
+      <c r="D10">
+        <v>-0.1988165259919308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002555554078628878</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005876864019379532</v>
+      </c>
+      <c r="C11">
+        <v>-0.07972921440058289</v>
+      </c>
+      <c r="D11">
+        <v>0.06033356716133097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0005808048205674502</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004197875078544621</v>
+      </c>
+      <c r="C12">
+        <v>-0.06412847255436288</v>
+      </c>
+      <c r="D12">
+        <v>0.04647663423503878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002029599562412562</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.009160177300672069</v>
+      </c>
+      <c r="C13">
+        <v>-0.06899936851572706</v>
+      </c>
+      <c r="D13">
+        <v>0.05712727136878774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0008684158935206228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001649672465084162</v>
+      </c>
+      <c r="C14">
+        <v>-0.04539638786988183</v>
+      </c>
+      <c r="D14">
+        <v>0.004195650296911425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0007144128840899077</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006103752158539499</v>
+      </c>
+      <c r="C15">
+        <v>-0.04204216518752538</v>
+      </c>
+      <c r="D15">
+        <v>0.02832903514036122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0006016096937764432</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005182915416069004</v>
+      </c>
+      <c r="C16">
+        <v>-0.06511910755624033</v>
+      </c>
+      <c r="D16">
+        <v>0.04833503961651903</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0002658244902079456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009105216820343763</v>
+      </c>
+      <c r="C20">
+        <v>-0.06565593921704631</v>
+      </c>
+      <c r="D20">
+        <v>0.04202671095275038</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005687035590410983</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.01005679132238065</v>
+      </c>
+      <c r="C21">
+        <v>-0.02106451149974557</v>
+      </c>
+      <c r="D21">
+        <v>0.03751439511790221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.0158682759141444</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006582941028111632</v>
+      </c>
+      <c r="C22">
+        <v>-0.09377087710866711</v>
+      </c>
+      <c r="D22">
+        <v>0.107975946814909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01616758048689426</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006398609922851677</v>
+      </c>
+      <c r="C23">
+        <v>-0.09458286178399904</v>
+      </c>
+      <c r="D23">
+        <v>0.1079971041290219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001297065545199206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005640281758051746</v>
+      </c>
+      <c r="C24">
+        <v>-0.07639970845584262</v>
+      </c>
+      <c r="D24">
+        <v>0.06349291568651855</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003848837182808636</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003183333787847016</v>
+      </c>
+      <c r="C25">
+        <v>-0.07853786663597537</v>
+      </c>
+      <c r="D25">
+        <v>0.06693146748504204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004495733651366829</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003754308281521121</v>
+      </c>
+      <c r="C26">
+        <v>-0.04119441366165683</v>
+      </c>
+      <c r="D26">
+        <v>0.02332384617540779</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004262594120036242</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0007351481342727538</v>
+      </c>
+      <c r="C28">
+        <v>-0.1064899666257155</v>
+      </c>
+      <c r="D28">
+        <v>-0.3166914545556395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001314444942691249</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.0034491108913296</v>
+      </c>
+      <c r="C29">
+        <v>-0.0509259139361939</v>
+      </c>
+      <c r="D29">
+        <v>0.007598624913110704</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002908834643843609</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009666486086808672</v>
+      </c>
+      <c r="C30">
+        <v>-0.1415129269328602</v>
+      </c>
+      <c r="D30">
+        <v>0.09408108090005581</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001039925024437258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006349452694012599</v>
+      </c>
+      <c r="C31">
+        <v>-0.04454044451681601</v>
+      </c>
+      <c r="D31">
+        <v>0.03081513116483198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0007152215436767957</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004219159143824223</v>
+      </c>
+      <c r="C32">
+        <v>-0.04017668426077494</v>
+      </c>
+      <c r="D32">
+        <v>0.01951338515161101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002548327402807512</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008654218483621206</v>
+      </c>
+      <c r="C33">
+        <v>-0.08656717231654348</v>
+      </c>
+      <c r="D33">
+        <v>0.06593022950212572</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004385726027378988</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004091539013985983</v>
+      </c>
+      <c r="C34">
+        <v>-0.05810375812061489</v>
+      </c>
+      <c r="D34">
+        <v>0.05408340375401623</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001401356181381445</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005072316107665235</v>
+      </c>
+      <c r="C35">
+        <v>-0.04037369645064121</v>
+      </c>
+      <c r="D35">
+        <v>0.01669746495330669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003721397046662678</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.00106851364358634</v>
+      </c>
+      <c r="C36">
+        <v>-0.02457813939473978</v>
+      </c>
+      <c r="D36">
+        <v>0.02092890144994166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002633039159033041</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009492014250807678</v>
+      </c>
+      <c r="C38">
+        <v>-0.03411210938823417</v>
+      </c>
+      <c r="D38">
+        <v>0.01419515508958119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01117467756838506</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0003366359631136406</v>
+      </c>
+      <c r="C39">
+        <v>-0.1156417653611403</v>
+      </c>
+      <c r="D39">
+        <v>0.07304900246872495</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009354423730721475</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002848144127514278</v>
+      </c>
+      <c r="C40">
+        <v>-0.09021183981605903</v>
+      </c>
+      <c r="D40">
+        <v>0.01006410027722465</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>2.983367365683433e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007348637296935679</v>
+      </c>
+      <c r="C41">
+        <v>-0.0382205039111107</v>
+      </c>
+      <c r="D41">
+        <v>0.0359732422145046</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002997021196708507</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.00416181677679483</v>
+      </c>
+      <c r="C43">
+        <v>-0.05347506544113395</v>
+      </c>
+      <c r="D43">
+        <v>0.02468763098138319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004183326985946092</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003584133881639566</v>
+      </c>
+      <c r="C44">
+        <v>-0.1093956956288854</v>
+      </c>
+      <c r="D44">
+        <v>0.06562943423413457</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001147503542850966</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002315358599910115</v>
+      </c>
+      <c r="C46">
+        <v>-0.03331444304375523</v>
+      </c>
+      <c r="D46">
+        <v>0.03468327036212744</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0002361104518315123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002807105038792349</v>
+      </c>
+      <c r="C47">
+        <v>-0.03745054987193318</v>
+      </c>
+      <c r="D47">
+        <v>0.02188506601372482</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003827516359132805</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006746686761097981</v>
+      </c>
+      <c r="C48">
+        <v>-0.03099969587103111</v>
+      </c>
+      <c r="D48">
+        <v>0.03224387076945911</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01169943414668657</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01580952746002837</v>
+      </c>
+      <c r="C49">
+        <v>-0.1848911319866682</v>
+      </c>
+      <c r="D49">
+        <v>0.01703445048318698</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001596520107981134</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003733259609967843</v>
+      </c>
+      <c r="C50">
+        <v>-0.04346976303227682</v>
+      </c>
+      <c r="D50">
+        <v>0.03669061270930817</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0007732551959007757</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004496257729522346</v>
+      </c>
+      <c r="C51">
+        <v>-0.02598271276475273</v>
+      </c>
+      <c r="D51">
+        <v>0.02014292727296584</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001289093605692604</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02129460871005208</v>
+      </c>
+      <c r="C53">
+        <v>-0.1695330011497804</v>
+      </c>
+      <c r="D53">
+        <v>0.02684017020240492</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001088885778045004</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008866201300128685</v>
+      </c>
+      <c r="C54">
+        <v>-0.0541035726798629</v>
+      </c>
+      <c r="D54">
+        <v>0.04391161066696622</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003300145190567321</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009842722953571881</v>
+      </c>
+      <c r="C55">
+        <v>-0.1092649418274619</v>
+      </c>
+      <c r="D55">
+        <v>0.03986432051114257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002980826156916802</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02042708869828047</v>
+      </c>
+      <c r="C56">
+        <v>-0.1737510742811082</v>
+      </c>
+      <c r="D56">
+        <v>0.02116004396717096</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.006639091148589214</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01989294191233847</v>
+      </c>
+      <c r="C58">
+        <v>-0.11197309131191</v>
+      </c>
+      <c r="D58">
+        <v>0.04530863221519375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006064918579913704</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01006432677130667</v>
+      </c>
+      <c r="C59">
+        <v>-0.164080041474858</v>
+      </c>
+      <c r="D59">
+        <v>-0.324511143610773</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003271260494187499</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02456581311227215</v>
+      </c>
+      <c r="C60">
+        <v>-0.222561694686569</v>
+      </c>
+      <c r="D60">
+        <v>0.03339772870569703</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01378972131236754</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001560199286713863</v>
+      </c>
+      <c r="C61">
+        <v>-0.09482580057102982</v>
+      </c>
+      <c r="D61">
+        <v>0.05491956463630564</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1631271746094013</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1452797546198901</v>
+      </c>
+      <c r="C62">
+        <v>-0.0941317131623861</v>
+      </c>
+      <c r="D62">
+        <v>0.04183977981562712</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0004788290550676859</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006426123826726463</v>
+      </c>
+      <c r="C63">
+        <v>-0.05499320912222287</v>
+      </c>
+      <c r="D63">
+        <v>0.02847362256088691</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.000460514056028824</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01552938951132422</v>
+      </c>
+      <c r="C64">
+        <v>-0.1048874150114407</v>
+      </c>
+      <c r="D64">
+        <v>0.0583924046812813</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.003153529427041129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01836130439166499</v>
+      </c>
+      <c r="C65">
+        <v>-0.1246279997091734</v>
+      </c>
+      <c r="D65">
+        <v>0.02076987344104786</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007197408165570318</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01337463982220085</v>
+      </c>
+      <c r="C66">
+        <v>-0.1596860886898551</v>
+      </c>
+      <c r="D66">
+        <v>0.1112396488927103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003755531762758015</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01572847010577952</v>
+      </c>
+      <c r="C67">
+        <v>-0.06495173457795013</v>
+      </c>
+      <c r="D67">
+        <v>0.02606857885140177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.005526993932476383</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0008055726675473395</v>
+      </c>
+      <c r="C68">
+        <v>-0.08683113148637116</v>
+      </c>
+      <c r="D68">
+        <v>-0.2601219036718878</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.00189632324975421</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006335219608718206</v>
+      </c>
+      <c r="C69">
+        <v>-0.05050486698846579</v>
+      </c>
+      <c r="D69">
+        <v>0.04034831150641386</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0002724916049835088</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001842518328854714</v>
+      </c>
+      <c r="C70">
+        <v>-0.002695676374816417</v>
+      </c>
+      <c r="D70">
+        <v>0.001233276903659964</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0003040823222669025</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005906864333330953</v>
+      </c>
+      <c r="C71">
+        <v>-0.09430326103859954</v>
+      </c>
+      <c r="D71">
+        <v>-0.3064265646388059</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003734705095001281</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01658405561043662</v>
+      </c>
+      <c r="C72">
+        <v>-0.1537927930351291</v>
+      </c>
+      <c r="D72">
+        <v>0.0214157509200964</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01108799720910175</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.0314873671590185</v>
+      </c>
+      <c r="C73">
+        <v>-0.2803004290706853</v>
+      </c>
+      <c r="D73">
+        <v>0.05455249135243697</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.00460095734705695</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002198058534212966</v>
+      </c>
+      <c r="C74">
+        <v>-0.1046120913804877</v>
+      </c>
+      <c r="D74">
+        <v>0.03606636743488908</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.0022836973378129</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.0112515757113882</v>
+      </c>
+      <c r="C75">
+        <v>-0.1245410828787484</v>
+      </c>
+      <c r="D75">
+        <v>0.02334449426768867</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009125199119226863</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02209934817469047</v>
+      </c>
+      <c r="C76">
+        <v>-0.1484248004626252</v>
+      </c>
+      <c r="D76">
+        <v>0.0588208794013811</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.002110509472359304</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02370635407960785</v>
+      </c>
+      <c r="C77">
+        <v>-0.1223772508346685</v>
+      </c>
+      <c r="D77">
+        <v>0.09471558925243938</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001028337867565534</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01496584992389465</v>
+      </c>
+      <c r="C78">
+        <v>-0.09569149935291484</v>
+      </c>
+      <c r="D78">
+        <v>0.07110105945169176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02346171630735738</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.0380342369560726</v>
+      </c>
+      <c r="C79">
+        <v>-0.1566953233950801</v>
+      </c>
+      <c r="D79">
+        <v>0.03188710633472716</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006847146916502772</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01043733562585293</v>
+      </c>
+      <c r="C80">
+        <v>-0.03984428132501125</v>
+      </c>
+      <c r="D80">
+        <v>0.02769607116855698</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0006547135463267947</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01557944151608497</v>
+      </c>
+      <c r="C81">
+        <v>-0.1266642632906592</v>
+      </c>
+      <c r="D81">
+        <v>0.04020534350466882</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005886084655130017</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02016037991168943</v>
+      </c>
+      <c r="C82">
+        <v>-0.141472435071858</v>
+      </c>
+      <c r="D82">
+        <v>0.03563682527861968</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.00940502011314066</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01005441534976862</v>
+      </c>
+      <c r="C83">
+        <v>-0.05522272860855624</v>
+      </c>
+      <c r="D83">
+        <v>0.05080122819386278</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01343842202534539</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01169431382029224</v>
+      </c>
+      <c r="C84">
+        <v>-0.03711716473842665</v>
+      </c>
+      <c r="D84">
+        <v>-0.009529548762470757</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01423398644895059</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02856290141197853</v>
+      </c>
+      <c r="C85">
+        <v>-0.1241719568465394</v>
+      </c>
+      <c r="D85">
+        <v>0.04620522514084102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.00139054840382685</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.00597842663236974</v>
+      </c>
+      <c r="C86">
+        <v>-0.04967355474695719</v>
+      </c>
+      <c r="D86">
+        <v>0.02981651300654809</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.003281863895591939</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01036675492386066</v>
+      </c>
+      <c r="C87">
+        <v>-0.1283152408903918</v>
+      </c>
+      <c r="D87">
+        <v>0.07545205846123797</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01137514693407966</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002801393799763804</v>
+      </c>
+      <c r="C88">
+        <v>-0.06491862685929595</v>
+      </c>
+      <c r="D88">
+        <v>0.01761032364933001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.0127703053912784</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001041611117704939</v>
+      </c>
+      <c r="C89">
+        <v>-0.1466257645588251</v>
+      </c>
+      <c r="D89">
+        <v>-0.3393903840300823</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>1.808002004057949e-05</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007227439761258002</v>
+      </c>
+      <c r="C90">
+        <v>-0.1206449087711591</v>
+      </c>
+      <c r="D90">
+        <v>-0.3191745422395894</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0008439249140362865</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01061239714386592</v>
+      </c>
+      <c r="C91">
+        <v>-0.100233803307424</v>
+      </c>
+      <c r="D91">
+        <v>0.02115503639878493</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.006782206386527874</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001255637845833421</v>
+      </c>
+      <c r="C92">
+        <v>-0.1350895085330096</v>
+      </c>
+      <c r="D92">
+        <v>-0.3271666869981712</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0002310949591112177</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005131596665125691</v>
+      </c>
+      <c r="C93">
+        <v>-0.1049178029613111</v>
+      </c>
+      <c r="D93">
+        <v>-0.3014205768808578</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003994840926358475</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02286654598682256</v>
+      </c>
+      <c r="C94">
+        <v>-0.1464352496942588</v>
+      </c>
+      <c r="D94">
+        <v>0.0510324928380169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004660399510623945</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01670449476780983</v>
+      </c>
+      <c r="C95">
+        <v>-0.125161650636273</v>
+      </c>
+      <c r="D95">
+        <v>0.05663622612913357</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001785520964368739</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03686887103124648</v>
+      </c>
+      <c r="C97">
+        <v>-0.2143324193166022</v>
+      </c>
+      <c r="D97">
+        <v>0.0003666154988194263</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.002236887129478282</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03728962825602502</v>
+      </c>
+      <c r="C98">
+        <v>-0.2495970214336318</v>
+      </c>
+      <c r="D98">
+        <v>0.04838260214657972</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9849505652477309</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9818756154865184</v>
+      </c>
+      <c r="C99">
+        <v>0.1191168217589088</v>
+      </c>
+      <c r="D99">
+        <v>-0.02715269082862594</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001214140147372301</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003486803370759109</v>
+      </c>
+      <c r="C101">
+        <v>-0.05110264945737471</v>
+      </c>
+      <c r="D101">
+        <v>0.007738824865494122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
